--- a/P1_Composites/P1_composite_analysis_template.xlsx
+++ b/P1_Composites/P1_composite_analysis_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasfish/Desktop/University_Work/II_Materials/P1_Composites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2500E443-FF8D-2345-A8ED-BF67D32AE7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCFE34-D41D-6843-BFD7-923F5EF63B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
   <si>
     <t>P1 Thermal Distortion in Composites – Analysis Spreadsheet</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Matrix modulus, Em</t>
   </si>
   <si>
-    <t>GPa (Nylon 6)</t>
-  </si>
-  <si>
     <t>Fibre axial expansivity, alpha_f_ax</t>
   </si>
   <si>
@@ -74,18 +71,12 @@
     <t>Fibre Poisson ratio, nu_f</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Matrix Poisson ratio, nu_m</t>
   </si>
   <si>
     <t>Temperature change, DeltaT</t>
   </si>
   <si>
-    <t>K (room to liquid N2)</t>
-  </si>
-  <si>
     <t>B. Density measurements and fibre volume fraction</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Simple cross-ply</t>
-  </si>
-  <si>
     <t>Average fibre volume fraction, f_avg</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>Beam width, w</t>
   </si>
   <si>
-    <t>mm (unidirectional strips)</t>
-  </si>
-  <si>
     <t>Beam thickness, h</t>
   </si>
   <si>
@@ -152,24 +137,15 @@
     <t>Second moment of area, I</t>
   </si>
   <si>
-    <t>mm^4</t>
-  </si>
-  <si>
     <t>E1 (composite modulus along fibres)</t>
   </si>
   <si>
-    <t>Pa</t>
-  </si>
-  <si>
     <t>E2 (composite modulus transverse to fibres)</t>
   </si>
   <si>
     <t>D. Fibre moduli from unidirectional composite</t>
   </si>
   <si>
-    <t>Matrix modulus, Em (Pa)</t>
-  </si>
-  <si>
     <t>Fibre volume fraction, f</t>
   </si>
   <si>
@@ -197,39 +173,21 @@
     <t>Deflection at RT, delta_RT</t>
   </si>
   <si>
-    <t>mm (positive if curved away from wall)</t>
-  </si>
-  <si>
     <t>Deflection cold, delta_cold</t>
   </si>
   <si>
-    <t>mm (same sign convention)</t>
-  </si>
-  <si>
     <t>Laminate thickness (cross-ply), h_lam</t>
   </si>
   <si>
-    <t>mm (total)</t>
-  </si>
-  <si>
     <t>Layer thicknesses hA, hB</t>
   </si>
   <si>
-    <t>Assume EA = E1 (axial), EB = E2 (transverse)</t>
-  </si>
-  <si>
-    <t>EB</t>
-  </si>
-  <si>
     <t>Curvatures and misfit strain</t>
   </si>
   <si>
     <t>kappa_RT</t>
   </si>
   <si>
-    <t>m^-1</t>
-  </si>
-  <si>
     <t>kappa_cold</t>
   </si>
   <si>
@@ -257,18 +215,9 @@
     <t>Measured Delta_alpha (composite)</t>
   </si>
   <si>
-    <t>K^-1</t>
-  </si>
-  <si>
     <t>F. Thermal expansivity micromechanics – solve for alpha_m</t>
   </si>
   <si>
-    <t>Matrix expansivity guess, alpha_m</t>
-  </si>
-  <si>
-    <t>10^-6 K^-1 (adjust / use Goal Seek)</t>
-  </si>
-  <si>
     <t>Intermediate quantities</t>
   </si>
   <si>
@@ -287,9 +236,6 @@
     <t>Error = Delta_alpha_pred - Delta_alpha_meas</t>
   </si>
   <si>
-    <t>10^-6 K^-1 (set this to 0 with Goal Seek by changing alpha_m)</t>
-  </si>
-  <si>
     <t>A. Material constants</t>
   </si>
   <si>
@@ -299,9 +245,6 @@
     <t>Units / Notes</t>
   </si>
   <si>
-    <t>4x4</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
@@ -311,48 +254,12 @@
     <t>d</t>
   </si>
   <si>
-    <t>3x6x3</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>Fibre volume fraction</t>
   </si>
   <si>
-    <t>14 tr</t>
-  </si>
-  <si>
-    <t>14 ax</t>
-  </si>
-  <si>
-    <t>Unidirectional / axial</t>
-  </si>
-  <si>
-    <t>NOT REQUIRED, INTERMEDIATE MATHS</t>
-  </si>
-  <si>
-    <t>FOR WHAT PURPOSE?</t>
-  </si>
-  <si>
-    <t>10cm</t>
-  </si>
-  <si>
-    <t>large sep</t>
-  </si>
-  <si>
-    <t>small sep</t>
-  </si>
-  <si>
-    <t>3cm</t>
-  </si>
-  <si>
-    <t>Symmetric cross-ply / now unidirectional transverse</t>
-  </si>
-  <si>
     <t>Measured composite moduli (unidirectional)</t>
   </si>
   <si>
@@ -362,7 +269,130 @@
     <t>GPa</t>
   </si>
   <si>
-    <t>Pa (From Python)</t>
+    <t>Error analysis:</t>
+  </si>
+  <si>
+    <t>Macroscopic sample dimensions</t>
+  </si>
+  <si>
+    <t>4x4 simple cross ply</t>
+  </si>
+  <si>
+    <t>Mg m^-3 (Given)</t>
+  </si>
+  <si>
+    <t>3x6x3 symmetrical</t>
+  </si>
+  <si>
+    <t>14 unidirectional</t>
+  </si>
+  <si>
+    <t>GPa (Nylon 6) (Given)</t>
+  </si>
+  <si>
+    <t>10^-6 K^-1 (Given)</t>
+  </si>
+  <si>
+    <t>Individual sample dimensions</t>
+  </si>
+  <si>
+    <t>14 unidirectional axial</t>
+  </si>
+  <si>
+    <t>- (Given)</t>
+  </si>
+  <si>
+    <t>14 unidirectional transverse</t>
+  </si>
+  <si>
+    <t>K (room to liquid N2) (Given)</t>
+  </si>
+  <si>
+    <t>Initial fibre volume fraction measurements of larger square sheets:</t>
+  </si>
+  <si>
+    <t>14 Unidirectional Axial</t>
+  </si>
+  <si>
+    <t>(Measured)</t>
+  </si>
+  <si>
+    <t>4x4 Simple Cross Ply</t>
+  </si>
+  <si>
+    <t>14 Unidirectional Transverse</t>
+  </si>
+  <si>
+    <t>3x6x3 symmetric cross ply</t>
+  </si>
+  <si>
+    <t>(Calculated)</t>
+  </si>
+  <si>
+    <t>Recorded dimensions of the 4-point bend aparatus</t>
+  </si>
+  <si>
+    <t>Support Span (L)</t>
+  </si>
+  <si>
+    <t>Inner Span (s)</t>
+  </si>
+  <si>
+    <t>10 cm</t>
+  </si>
+  <si>
+    <t>3 cm</t>
+  </si>
+  <si>
+    <t>mm (Measured)</t>
+  </si>
+  <si>
+    <t>mm (Measured Above)</t>
+  </si>
+  <si>
+    <t>mm^4 (Calculated)</t>
+  </si>
+  <si>
+    <t>Pa (From Python Fit)</t>
+  </si>
+  <si>
+    <t>Pa (Given)</t>
+  </si>
+  <si>
+    <t>- (Calculated above)</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>mm (positive if curved away from wall) (Measured)</t>
+  </si>
+  <si>
+    <t>mm (same sign convention) (Measured)</t>
+  </si>
+  <si>
+    <t>mm (Total) (Measured)</t>
+  </si>
+  <si>
+    <t>mm (For each direction) (Measured)</t>
+  </si>
+  <si>
+    <t>Assume EA = E1 (axial)</t>
+  </si>
+  <si>
+    <t>Assume EB = E2 (transvers)</t>
+  </si>
+  <si>
+    <t>m^-1 (Calculated)</t>
+  </si>
+  <si>
+    <t>m (Measured)</t>
+  </si>
+  <si>
+    <t>K^-1 (Calculated)</t>
+  </si>
+  <si>
+    <t>alpha_m (matrix thermal expansivity)</t>
   </si>
 </sst>
 </file>
@@ -386,13 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -407,15 +430,22 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,14 +477,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,109 +788,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2">
+      <c r="K1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>0.02</v>
-      </c>
-      <c r="O2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0.03</v>
-      </c>
-      <c r="O3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0.01</v>
       </c>
       <c r="O4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -873,10 +876,25 @@
         <v>1.75</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.03</v>
+      </c>
+      <c r="O5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -884,34 +902,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0.01</v>
+      </c>
+      <c r="O6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -919,226 +928,193 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
-      </c>
-      <c r="K7">
-        <v>66.2</v>
-      </c>
-      <c r="L7">
-        <v>152</v>
-      </c>
-      <c r="M7">
-        <v>156</v>
-      </c>
-      <c r="N7">
-        <v>1.9</v>
-      </c>
-      <c r="O7">
-        <v>45052.799999999996</v>
-      </c>
-      <c r="P7">
-        <v>1.4693870303288588</v>
-      </c>
-      <c r="Q7">
-        <v>0.56828773896747498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
       </c>
       <c r="B8">
         <v>-1</v>
       </c>
       <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
-      </c>
-      <c r="K8">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="L8">
-        <v>154</v>
-      </c>
-      <c r="M8">
-        <v>155</v>
-      </c>
-      <c r="N8">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O8">
-        <v>27450.499999999996</v>
-      </c>
-      <c r="P8">
-        <v>1.3405948889819859</v>
-      </c>
-      <c r="Q8">
-        <v>0.37014598304920893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>57.8</v>
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
       </c>
       <c r="L9">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.35</v>
+        <v>0.1</v>
       </c>
       <c r="O9">
-        <v>35202.600000000006</v>
-      </c>
-      <c r="P9">
-        <v>1.6419241760551775</v>
-      </c>
-      <c r="Q9">
-        <v>0.83372950162334991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0.2</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0.4</v>
       </c>
       <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0.1</v>
+      </c>
+      <c r="O11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
       </c>
       <c r="B12">
         <v>220</v>
       </c>
       <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K13" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0.1</v>
-      </c>
-      <c r="O12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0.1</v>
-      </c>
-      <c r="O14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>10.7</v>
@@ -1153,21 +1129,45 @@
         <v>1.97</v>
       </c>
       <c r="F16">
-        <f>C16*D16*E16</f>
         <v>7387.5</v>
       </c>
       <c r="G16">
-        <f>B16*1000/F16</f>
-        <v>1.4483925549915397</v>
+        <v>1.4483925550000001</v>
       </c>
       <c r="H16">
-        <f>(G16-$B$6)/($B$5-$B$6)</f>
-        <v>0.53598854614083036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.53598854610000002</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16">
+        <v>66.2</v>
+      </c>
+      <c r="M16">
+        <v>152</v>
+      </c>
+      <c r="N16">
+        <v>156</v>
+      </c>
+      <c r="O16">
+        <v>1.9</v>
+      </c>
+      <c r="P16">
+        <v>45052.800000000003</v>
+      </c>
+      <c r="Q16">
+        <v>1.46938703</v>
+      </c>
+      <c r="R16">
+        <v>0.56828773899999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>4.2</v>
@@ -1182,21 +1182,45 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <f>C17*D17*E17</f>
         <v>3080</v>
       </c>
       <c r="G17">
-        <f>B17*1000/F17</f>
-        <v>1.3636363636363635</v>
+        <v>1.363636364</v>
       </c>
       <c r="H17">
-        <f>(G17-$B$6)/($B$5-$B$6)</f>
-        <v>0.40559440559440535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.40559440559999999</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M17">
+        <v>154</v>
+      </c>
+      <c r="N17">
+        <v>155</v>
+      </c>
+      <c r="O17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P17">
+        <v>27450.5</v>
+      </c>
+      <c r="Q17">
+        <v>1.3405948889999999</v>
+      </c>
+      <c r="R17">
+        <v>0.37014598300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>10.4</v>
@@ -1211,555 +1235,602 @@
         <v>1.93</v>
       </c>
       <c r="F18">
-        <f>C18*D18*E18</f>
         <v>6565.86</v>
       </c>
       <c r="G18">
-        <f>B18*1000/F18</f>
-        <v>1.5839509218898973</v>
+        <v>1.5839509220000001</v>
       </c>
       <c r="H18">
-        <f>(G18-$B$6)/($B$5-$B$6)</f>
-        <v>0.74453987983061121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.74453987980000003</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18">
+        <v>57.8</v>
+      </c>
+      <c r="M18">
+        <v>164</v>
+      </c>
+      <c r="N18">
+        <v>159</v>
+      </c>
+      <c r="O18">
+        <v>1.35</v>
+      </c>
+      <c r="P18">
+        <v>35202.6</v>
+      </c>
+      <c r="Q18">
+        <v>1.6419241760000001</v>
+      </c>
+      <c r="R18">
+        <v>0.83372950160000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <f>AVERAGE(H16:H18)</f>
-        <v>0.56204094385528236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.56204094390000003</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
         <v>102</v>
       </c>
-      <c r="L21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>1.95</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <f>(B26*(B27^3))/12</f>
         <v>16.065562499999999</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="5">
-        <v>95639347882.995804</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>95639347883</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="5">
-        <v>7160580659.6718397</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>7160580660</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <f>$B$7*1000000000</f>
         <v>5000000000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="4">
-        <f>$B$20</f>
-        <v>0.56204094385528236</v>
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0.56204094390000003</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="6">
-        <f>((B34-(1-B40)*B39)/B40)/1000000000</f>
-        <v>166.26822943051309</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>107</v>
+      <c r="A41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="7">
+        <v>166.2682294</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="4">
-        <f>B36/B39</f>
+        <v>39</v>
+      </c>
+      <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <f>(B42-1)/(B42+1)</f>
         <v>-1</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="6">
-        <f>(B39*(B39*(1-B40)-B35*(1+B40))/(B35*(1-B40)-B39*(1+B40)))/1000000000</f>
-        <v>9.622389923535831</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>108</v>
+      <c r="A44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="7">
+        <v>9.6223899240000001</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>50</v>
+      <c r="A46" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>0.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54">
+        <v>95639347883</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55">
+        <v>7160580660</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59">
+        <v>11.275238180000001</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60">
+        <v>10.835493980000001</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61">
+        <v>-0.43974419599999998</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64">
+        <v>1027249897132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65">
+        <v>1174114030</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66">
+        <v>874.91493209999999</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B67">
+        <v>-5.0261365979999996E-4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>59</v>
       </c>
-      <c r="B53">
-        <f>B52/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B68">
+        <v>-2.2846075449999999E-6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B54">
-        <f>B34</f>
-        <v>95639347882.995804</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B55">
-        <f>B35</f>
-        <v>7160580659.6718397</v>
-      </c>
-      <c r="C55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B73" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B74">
+        <v>0.28759181119999999</v>
+      </c>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>63</v>
       </c>
-      <c r="B59">
-        <f>2*SIN(ATAN((B49/1000)/(B48/1000)))/SQRT((B48/1000)^2+(B49/1000)^2)</f>
-        <v>11.275238178480903</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>65</v>
       </c>
-      <c r="B60">
-        <f>2*SIN(ATAN((B50/1000)/(B48/1000)))/SQRT((B48/1000)^2+(B50/1000)^2)</f>
-        <v>10.83549398243102</v>
-      </c>
-      <c r="C60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="C77" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>66</v>
       </c>
-      <c r="B61">
-        <f>B60-B59</f>
-        <v>-0.43974419604988313</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <f>B53/1000</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <f>B53/1000</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <f>6*B54*B55*(B62+B63)*B62*B63</f>
-        <v>1027249897131.9102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <f>B54^2*B62^4+4*B54*B55*B62^3*B63+6*B54*B55*B62^2*B63^2+4*B54*B55*B62*B63^3+B55^2*B63^4</f>
-        <v>1174114030.3395534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <f>B64/B65</f>
-        <v>874.91493209976363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <f>B61/B66</f>
-        <v>-5.0261365981548996E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <f>B67/$B$12</f>
-        <v>-2.2846075446158636E-6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <f>B40*$B$10+(1-B40)*$B$11</f>
-        <v>0.28759181122894356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <f>(B71*(1-B40)*($B$7*1000000000)/1000000000+$B$8*B40*B41/1000000000)/(((1-B40)*($B$7*1000000000)+B40*B41)/1000000000)</f>
-        <v>79.999996543323704</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <f>B71*(1-B40)*(1+$B$11)+$B$9*B40*(1+$B$10)-B75*B74</f>
-        <v>32.78856171026807</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <f>B75-B76</f>
-        <v>47.211434833055634</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <f>B77-B68*1000000</f>
-        <v>49.4960423776715</v>
-      </c>
       <c r="C78" t="s">
-        <v>84</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1.4606830759999999E-5</v>
+      </c>
+      <c r="C80" s="7">
+        <v>14.606830759999999</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
